--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ly9-Ly9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ly9-Ly9.xlsx
@@ -522,52 +522,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.1947268640355</v>
+        <v>39.29069633333334</v>
       </c>
       <c r="H2">
-        <v>39.1947268640355</v>
+        <v>117.872089</v>
       </c>
       <c r="I2">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="J2">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.1947268640355</v>
+        <v>39.29069633333334</v>
       </c>
       <c r="N2">
-        <v>39.1947268640355</v>
+        <v>117.872089</v>
       </c>
       <c r="O2">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="P2">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="Q2">
-        <v>1536.226613946346</v>
+        <v>1543.758818358214</v>
       </c>
       <c r="R2">
-        <v>1536.226613946346</v>
+        <v>13893.82936522392</v>
       </c>
       <c r="S2">
-        <v>0.2847585386303904</v>
+        <v>0.265104110020946</v>
       </c>
       <c r="T2">
-        <v>0.2847585386303904</v>
+        <v>0.265104110020946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,52 +584,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.1947268640355</v>
+        <v>39.29069633333334</v>
       </c>
       <c r="H3">
-        <v>39.1947268640355</v>
+        <v>117.872089</v>
       </c>
       <c r="I3">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="J3">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.2548443141127</v>
+        <v>37.019311</v>
       </c>
       <c r="N3">
-        <v>34.2548443141127</v>
+        <v>111.057933</v>
       </c>
       <c r="O3">
-        <v>0.4663722846118368</v>
+        <v>0.485117382288986</v>
       </c>
       <c r="P3">
-        <v>0.4663722846118368</v>
+        <v>0.4851173822889861</v>
       </c>
       <c r="Q3">
-        <v>1342.609266661707</v>
+        <v>1454.514506970226</v>
       </c>
       <c r="R3">
-        <v>1342.609266661707</v>
+        <v>13090.63056273204</v>
       </c>
       <c r="S3">
-        <v>0.2488691767577727</v>
+        <v>0.2497785076900678</v>
       </c>
       <c r="T3">
-        <v>0.2488691767577727</v>
+        <v>0.2497785076900678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,52 +646,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.2548443141127</v>
+        <v>37.019311</v>
       </c>
       <c r="H4">
-        <v>34.2548443141127</v>
+        <v>111.057933</v>
       </c>
       <c r="I4">
-        <v>0.4663722846118368</v>
+        <v>0.485117382288986</v>
       </c>
       <c r="J4">
-        <v>0.4663722846118368</v>
+        <v>0.4851173822889861</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.1947268640355</v>
+        <v>39.29069633333334</v>
       </c>
       <c r="N4">
-        <v>39.1947268640355</v>
+        <v>117.872089</v>
       </c>
       <c r="O4">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="P4">
-        <v>0.5336277153881631</v>
+        <v>0.5148826177110138</v>
       </c>
       <c r="Q4">
-        <v>1342.609266661707</v>
+        <v>1454.514506970226</v>
       </c>
       <c r="R4">
-        <v>1342.609266661707</v>
+        <v>13090.63056273204</v>
       </c>
       <c r="S4">
-        <v>0.2488691767577727</v>
+        <v>0.2497785076900678</v>
       </c>
       <c r="T4">
-        <v>0.2488691767577727</v>
+        <v>0.2497785076900678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,52 +708,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.2548443141127</v>
+        <v>37.019311</v>
       </c>
       <c r="H5">
-        <v>34.2548443141127</v>
+        <v>111.057933</v>
       </c>
       <c r="I5">
-        <v>0.4663722846118368</v>
+        <v>0.485117382288986</v>
       </c>
       <c r="J5">
-        <v>0.4663722846118368</v>
+        <v>0.4851173822889861</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2548443141127</v>
+        <v>37.019311</v>
       </c>
       <c r="N5">
-        <v>34.2548443141127</v>
+        <v>111.057933</v>
       </c>
       <c r="O5">
-        <v>0.4663722846118368</v>
+        <v>0.485117382288986</v>
       </c>
       <c r="P5">
-        <v>0.4663722846118368</v>
+        <v>0.4851173822889861</v>
       </c>
       <c r="Q5">
-        <v>1173.394358984099</v>
+        <v>1370.429386914721</v>
       </c>
       <c r="R5">
-        <v>1173.394358984099</v>
+        <v>12333.86448223249</v>
       </c>
       <c r="S5">
-        <v>0.2175031078540641</v>
+        <v>0.2353388745989182</v>
       </c>
       <c r="T5">
-        <v>0.2175031078540641</v>
+        <v>0.2353388745989183</v>
       </c>
     </row>
   </sheetData>
